--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value15.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value15.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.453784103198757</v>
+        <v>4.317248821258545</v>
       </c>
       <c r="B1">
-        <v>1.872010604942485</v>
+        <v>6.210578441619873</v>
       </c>
       <c r="C1">
-        <v>1.913013700563063</v>
+        <v>5.124565601348877</v>
       </c>
       <c r="D1">
-        <v>2.19452446654859</v>
+        <v>5.956264972686768</v>
       </c>
       <c r="E1">
-        <v>1.226664169863402</v>
+        <v>4.773531913757324</v>
       </c>
     </row>
   </sheetData>
